--- a/biology/Botanique/Polystichum_setiferum/Polystichum_setiferum.xlsx
+++ b/biology/Botanique/Polystichum_setiferum/Polystichum_setiferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystic à soies
-Polystichum setiferum, de noms communs Polystic à soies, Polystic à frondes soyeuses, Fougère des fleuristes ou Aspidium à cils raides, est une espèce de fougères de la famille des Dryopteridaceae[2].
+Polystichum setiferum, de noms communs Polystic à soies, Polystic à frondes soyeuses, Fougère des fleuristes ou Aspidium à cils raides, est une espèce de fougères de la famille des Dryopteridaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique vient du latin seta (poil, crin, soie) et fera (qui porte), allusion aux poils sur ses frondes, ce qui lui vaut ses noms vernaculaires d'Aspidie à cils raides ou de Polystic à frondes soyeuses[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique vient du latin seta (poil, crin, soie) et fera (qui porte), allusion aux poils sur ses frondes, ce qui lui vaut ses noms vernaculaires d'Aspidie à cils raides ou de Polystic à frondes soyeuses.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante herbacée vivace à feuillage persistant haute de 60 centimètres à plus d'un mètre.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace à feuillage persistant haute de 60 centimètres à plus d'un mètre.
 Son rhizome est court et dressé, et émet une rosette de frondes douces au toucher. Le stipe (mesurant environ 1/5 à 1/3 de la longueur de la fronde) et le rachis présentent des écailles brunes aux reflets argentés.
-Le limbe lancéolé est bipenné et porte de 30 à 40 paires de pennes[4]. Les pinnules courtement pétiolées sont dentelées et présentent un lobe pointu à leur base[3].
-Appareil reproducteur
-Les sores circulaires se forment en été sur l'envers des pinnules de part et d'autre de leur nervure médiane. Ils sont protégés par des indusies peltées également circulaires.
-Les spores arrivées à maturité sont libérées par les sporanges et sont dispersées de façon anémochore (par le vent)[3].
+Le limbe lancéolé est bipenné et porte de 30 à 40 paires de pennes. Les pinnules courtement pétiolées sont dentelées et présentent un lobe pointu à leur base.
 </t>
         </is>
       </c>
@@ -577,13 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Polystichum setiferum est originaire d'Europe du sud et de l'ouest, des îles britanniques à la Méditerranée jusqu'à la Turquie.
-On rencontre ses diverses variétés en Irlande, en Angleterre, en Allemagne et en Europe centrale, dans le nord-ouest de la péninsule ibérique, en France et même dans les régions de la Méditerranée (en altitude seulement)[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sores circulaires se forment en été sur l'envers des pinnules de part et d'autre de leur nervure médiane. Ils sont protégés par des indusies peltées également circulaires.
+Les spores arrivées à maturité sont libérées par les sporanges et sont dispersées de façon anémochore (par le vent).
 </t>
         </is>
       </c>
@@ -609,12 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystichum setiferum préfère les conditions ombragées, en sous-bois, ou au bord d'un point d'eau, dans un sol humifère et drainé. L'espèce est cependant assez rustique (elle supporte des températures allant jusqu'à −18 °C)[5].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystichum setiferum est originaire d'Europe du sud et de l'ouest, des îles britanniques à la Méditerranée jusqu'à la Turquie.
+On rencontre ses diverses variétés en Irlande, en Angleterre, en Allemagne et en Europe centrale, dans le nord-ouest de la péninsule ibérique, en France et même dans les régions de la Méditerranée (en altitude seulement).
 </t>
         </is>
       </c>
@@ -640,12 +665,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante ornementale appréciée dans les jardins qui peut être utilisée comme couvre-sol[6].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystichum setiferum préfère les conditions ombragées, en sous-bois, ou au bord d'un point d'eau, dans un sol humifère et drainé. L'espèce est cependant assez rustique (elle supporte des températures allant jusqu'à −18 °C).
 </t>
         </is>
       </c>
@@ -671,12 +698,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante ornementale appréciée dans les jardins qui peut être utilisée comme couvre-sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Polystichum_setiferum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polystichum_setiferum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (16 janvier 2022)[7] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 janvier 2022) :
 variété Polystichum setiferum var. crenatum N.C. Nair
 variété Polystichum setiferum var. fargesii (Christ) C. Chr.
 variété Polystichum setiferum var. fuscopaleaceum (Alston) Schelpe
